--- a/Benchmark.xlsx
+++ b/Benchmark.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>GPU</t>
+    <t>CPU</t>
   </si>
   <si>
-    <t>CPU</t>
+    <t>GPU OpenCL</t>
+  </si>
+  <si>
+    <t>GPU CUDA</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0677700140029419E-2"/>
+          <c:y val="0.11421095917779497"/>
+          <c:w val="0.79832133583838216"/>
+          <c:h val="0.74905826991283908"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -175,7 +188,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GPU</c:v>
+                  <c:v>GPU OpenCL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -373,6 +386,111 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3F1E-400D-AAA6-2F713F5AB0E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.882999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.635000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.358999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.823999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.965999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107.429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>132.61699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>139.08799999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145.489</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>154.22800000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>173.72900000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>198.953</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>205.434</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>211.821</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220.554</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240.01599999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>265.21899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80F1-4D1D-8E11-C6BE26225449}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1243,16 +1361,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1537,188 +1655,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>6.3319999999999999</v>
       </c>
       <c r="B3">
         <v>16.805</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>6.4960000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>12.577999999999999</v>
       </c>
       <c r="B4">
         <v>34.756</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>12.882999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>22.094999999999999</v>
       </c>
       <c r="B5">
         <v>62.015999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>21.635000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46.823999999999998</v>
       </c>
       <c r="B6">
         <v>123.917</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>41.136000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>71.432000000000002</v>
       </c>
       <c r="B7">
         <v>189.678</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>66.358999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>77.742000000000004</v>
       </c>
       <c r="B8">
         <v>210.49799999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>72.823999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>83.988</v>
       </c>
       <c r="B9">
         <v>231.13200000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>79.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>93.498000000000005</v>
       </c>
       <c r="B10">
         <v>258.267</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>87.965999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>118.215</v>
       </c>
       <c r="B11">
         <v>317.66399999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>107.429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>144.79499999999999</v>
       </c>
       <c r="B12">
         <v>381.11200000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>132.61699999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>149.10400000000001</v>
       </c>
       <c r="B13">
         <v>401.858</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>139.08799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>155.351</v>
       </c>
       <c r="B14">
         <v>422.56</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>145.489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>164.86500000000001</v>
       </c>
       <c r="B15">
         <v>450.11700000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>154.22800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>189.60599999999999</v>
       </c>
       <c r="B16">
         <v>512.03700000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>173.72900000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>214.21</v>
       </c>
       <c r="B17">
         <v>577.83900000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>198.953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>220.52</v>
       </c>
       <c r="B18">
         <v>598.56399999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>205.434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>226.76400000000001</v>
       </c>
       <c r="B19">
         <v>619.28700000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>211.821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>236.285</v>
       </c>
       <c r="B20">
         <v>646.25199999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>220.554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>260.99599999999998</v>
       </c>
       <c r="B21">
         <v>705.63800000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>240.01599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>285.57499999999999</v>
       </c>
       <c r="B22">
         <v>769.05600000000004</v>
+      </c>
+      <c r="C22">
+        <v>265.21899999999999</v>
       </c>
     </row>
   </sheetData>
